--- a/Instancias XLS/Instancia 1.xlsx
+++ b/Instancias XLS/Instancia 1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiago\OneDrive\Área de Trabalho\Allocation-of-aircraft\Instancias XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC140AD-724D-43DE-8947-48C478A7F044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAEBE24-C18C-4ECE-A16C-03EC99B79162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{81D158DC-F0AC-4EEC-A844-8E5BCD381D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$K$184</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="19">
   <si>
     <t>AZU</t>
   </si>
@@ -86,6 +89,9 @@
   <si>
     <t>Situação Voo</t>
   </si>
+  <si>
+    <t>Numero de Passageiros</t>
+  </si>
 </sst>
 </file>
 
@@ -120,9 +126,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B699AF-AF0B-4F90-9908-DE2C64C803C9}">
-  <dimension ref="A1:K191"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D130" workbookViewId="0">
+      <selection activeCell="D141" sqref="A141:XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +469,11 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -491,8 +507,11 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +545,11 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -561,8 +583,11 @@
       <c r="K3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -596,8 +621,11 @@
       <c r="K4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -631,8 +659,11 @@
       <c r="K5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -666,8 +697,11 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -701,8 +735,11 @@
       <c r="K7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -736,8 +773,11 @@
       <c r="K8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -771,8 +811,11 @@
       <c r="K9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -806,8 +849,11 @@
       <c r="K10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -841,8 +887,11 @@
       <c r="K11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -876,8 +925,11 @@
       <c r="K12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -911,8 +963,11 @@
       <c r="K13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -946,8 +1001,11 @@
       <c r="K14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -981,8 +1039,11 @@
       <c r="K15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1077,11 @@
       <c r="K16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1115,11 @@
       <c r="K17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1153,11 @@
       <c r="K18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1191,11 @@
       <c r="K19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +1229,11 @@
       <c r="K20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1267,11 @@
       <c r="K21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1305,11 @@
       <c r="K22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1261,8 +1343,11 @@
       <c r="K23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1381,11 @@
       <c r="K24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1419,11 @@
       <c r="K25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1366,8 +1457,11 @@
       <c r="K26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1495,11 @@
       <c r="K27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1436,8 +1533,11 @@
       <c r="K28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1571,11 @@
       <c r="K29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1506,8 +1609,11 @@
       <c r="K30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1541,8 +1647,11 @@
       <c r="K31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1685,11 @@
       <c r="K32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1611,8 +1723,11 @@
       <c r="K33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1646,8 +1761,11 @@
       <c r="K34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1799,11 @@
       <c r="K35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1716,8 +1837,11 @@
       <c r="K36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1751,8 +1875,11 @@
       <c r="K37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1786,8 +1913,11 @@
       <c r="K38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1821,8 +1951,11 @@
       <c r="K39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1856,43 +1989,49 @@
       <c r="K40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>2560</v>
+        <v>2585</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
       <c r="G41" s="1">
-        <v>43345.324305555558</v>
+        <v>43345.930555555555</v>
       </c>
       <c r="H41" s="1">
-        <v>43345.324305555558</v>
+        <v>43345.927777777775</v>
       </c>
       <c r="I41" s="1">
-        <v>43345.336805555555</v>
+        <v>43345.989583333336</v>
       </c>
       <c r="J41" s="1">
-        <v>43345.336805555555</v>
+        <v>43345.984722222223</v>
       </c>
       <c r="K41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1912,22 +2051,25 @@
         <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>43345.930555555555</v>
+        <v>43346.930555555555</v>
       </c>
       <c r="H42" s="1">
-        <v>43345.927777777775</v>
+        <v>43346.930555555555</v>
       </c>
       <c r="I42" s="1">
-        <v>43345.989583333336</v>
+        <v>43346.989583333336</v>
       </c>
       <c r="J42" s="1">
-        <v>43345.984722222223</v>
+        <v>43346.989583333336</v>
       </c>
       <c r="K42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1947,22 +2089,25 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>43346.930555555555</v>
+        <v>43347.930555555555</v>
       </c>
       <c r="H43" s="1">
-        <v>43346.930555555555</v>
+        <v>43347.925694444442</v>
       </c>
       <c r="I43" s="1">
-        <v>43346.989583333336</v>
+        <v>43347.989583333336</v>
       </c>
       <c r="J43" s="1">
-        <v>43346.989583333336</v>
+        <v>43347.982638888891</v>
       </c>
       <c r="K43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1982,22 +2127,25 @@
         <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>43347.930555555555</v>
+        <v>43348.930555555555</v>
       </c>
       <c r="H44" s="1">
-        <v>43347.925694444442</v>
+        <v>43348.927083333336</v>
       </c>
       <c r="I44" s="1">
-        <v>43347.989583333336</v>
+        <v>43348.989583333336</v>
       </c>
       <c r="J44" s="1">
-        <v>43347.982638888891</v>
+        <v>43348.98333333333</v>
       </c>
       <c r="K44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2017,22 +2165,25 @@
         <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>43348.930555555555</v>
+        <v>43349.993055555555</v>
       </c>
       <c r="H45" s="1">
-        <v>43348.927083333336</v>
+        <v>43349.98541666667</v>
       </c>
       <c r="I45" s="1">
-        <v>43348.989583333336</v>
+        <v>43350.052083333336</v>
       </c>
       <c r="J45" s="1">
-        <v>43348.98333333333</v>
+        <v>43350.040277777778</v>
       </c>
       <c r="K45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2052,27 +2203,30 @@
         <v>3</v>
       </c>
       <c r="G46" s="1">
-        <v>43349.993055555555</v>
+        <v>43350.930555555555</v>
       </c>
       <c r="H46" s="1">
-        <v>43349.98541666667</v>
+        <v>43350.925000000003</v>
       </c>
       <c r="I46" s="1">
-        <v>43350.052083333336</v>
+        <v>43350.989583333336</v>
       </c>
       <c r="J46" s="1">
-        <v>43350.040277777778</v>
+        <v>43350.979861111111</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>2585</v>
+        <v>2590</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2081,28 +2235,31 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>43350.930555555555</v>
+        <v>43344.40625</v>
       </c>
       <c r="H47" s="1">
-        <v>43350.925000000003</v>
+        <v>43344.40625</v>
       </c>
       <c r="I47" s="1">
-        <v>43350.989583333336</v>
+        <v>43344.451388888891</v>
       </c>
       <c r="J47" s="1">
-        <v>43350.979861111111</v>
+        <v>43344.451388888891</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2122,22 +2279,25 @@
         <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>43344.40625</v>
+        <v>43345.416666666664</v>
       </c>
       <c r="H48" s="1">
-        <v>43344.40625</v>
+        <v>43345.414583333331</v>
       </c>
       <c r="I48" s="1">
-        <v>43344.451388888891</v>
+        <v>43345.465277777781</v>
       </c>
       <c r="J48" s="1">
-        <v>43344.451388888891</v>
+        <v>43345.460416666669</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2157,22 +2317,25 @@
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>43345.416666666664</v>
+        <v>43346.399305555555</v>
       </c>
       <c r="H49" s="1">
-        <v>43345.414583333331</v>
+        <v>43346.390277777777</v>
       </c>
       <c r="I49" s="1">
-        <v>43345.465277777781</v>
+        <v>43346.444444444445</v>
       </c>
       <c r="J49" s="1">
-        <v>43345.460416666669</v>
+        <v>43346.4375</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2192,22 +2355,25 @@
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>43346.399305555555</v>
+        <v>43347.409722222219</v>
       </c>
       <c r="H50" s="1">
-        <v>43346.390277777777</v>
+        <v>43347.406944444447</v>
       </c>
       <c r="I50" s="1">
-        <v>43346.444444444445</v>
+        <v>43347.454861111109</v>
       </c>
       <c r="J50" s="1">
-        <v>43346.4375</v>
+        <v>43347.45208333333</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2227,22 +2393,25 @@
         <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>43347.409722222219</v>
+        <v>43348.409722222219</v>
       </c>
       <c r="H51" s="1">
-        <v>43347.406944444447</v>
+        <v>43348.406944444447</v>
       </c>
       <c r="I51" s="1">
-        <v>43347.454861111109</v>
+        <v>43348.454861111109</v>
       </c>
       <c r="J51" s="1">
-        <v>43347.45208333333</v>
+        <v>43348.452777777777</v>
       </c>
       <c r="K51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2262,27 +2431,30 @@
         <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>43348.409722222219</v>
+        <v>43349.409722222219</v>
       </c>
       <c r="H52" s="1">
-        <v>43348.406944444447</v>
+        <v>43349.412499999999</v>
       </c>
       <c r="I52" s="1">
-        <v>43348.454861111109</v>
+        <v>43349.454861111109</v>
       </c>
       <c r="J52" s="1">
-        <v>43348.452777777777</v>
+        <v>43349.450694444444</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2590</v>
+        <v>2602</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2291,28 +2463,31 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1">
-        <v>43349.409722222219</v>
+        <v>43346.524305555555</v>
       </c>
       <c r="H53" s="1">
-        <v>43349.412499999999</v>
+        <v>43346.522222222222</v>
       </c>
       <c r="I53" s="1">
-        <v>43349.454861111109</v>
+        <v>43346.579861111109</v>
       </c>
       <c r="J53" s="1">
-        <v>43349.450694444444</v>
+        <v>43346.574999999997</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2332,22 +2507,25 @@
         <v>5</v>
       </c>
       <c r="G54" s="1">
-        <v>43346.524305555555</v>
+        <v>43347.524305555555</v>
       </c>
       <c r="H54" s="1">
-        <v>43346.522222222222</v>
+        <v>43347.521527777775</v>
       </c>
       <c r="I54" s="1">
-        <v>43346.579861111109</v>
+        <v>43347.579861111109</v>
       </c>
       <c r="J54" s="1">
-        <v>43346.574999999997</v>
+        <v>43347.595138888886</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2367,22 +2545,25 @@
         <v>5</v>
       </c>
       <c r="G55" s="1">
-        <v>43347.524305555555</v>
+        <v>43348.524305555555</v>
       </c>
       <c r="H55" s="1">
-        <v>43347.521527777775</v>
+        <v>43348.520833333336</v>
       </c>
       <c r="I55" s="1">
-        <v>43347.579861111109</v>
+        <v>43348.579861111109</v>
       </c>
       <c r="J55" s="1">
-        <v>43347.595138888886</v>
+        <v>43348.57708333333</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2402,27 +2583,30 @@
         <v>5</v>
       </c>
       <c r="G56" s="1">
-        <v>43348.524305555555</v>
+        <v>43349.524305555555</v>
       </c>
       <c r="H56" s="1">
-        <v>43348.520833333336</v>
+        <v>43349.523611111108</v>
       </c>
       <c r="I56" s="1">
-        <v>43348.579861111109</v>
+        <v>43349.579861111109</v>
       </c>
       <c r="J56" s="1">
-        <v>43348.57708333333</v>
+        <v>43349.577777777777</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>2602</v>
+        <v>2634</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2437,27 +2621,30 @@
         <v>5</v>
       </c>
       <c r="G57" s="1">
-        <v>43349.524305555555</v>
+        <v>43345.496527777781</v>
       </c>
       <c r="H57" s="1">
-        <v>43349.523611111108</v>
+        <v>43345.492361111108</v>
       </c>
       <c r="I57" s="1">
-        <v>43349.579861111109</v>
+        <v>43345.552083333336</v>
       </c>
       <c r="J57" s="1">
-        <v>43349.577777777777</v>
+        <v>43345.547222222223</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2634</v>
+        <v>2658</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2466,63 +2653,69 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>43344.28125</v>
+      </c>
+      <c r="H58" s="1">
+        <v>43344.277083333334</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43344.333333333336</v>
+      </c>
+      <c r="J58" s="1">
+        <v>43344.330555555556</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2671</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="1">
-        <v>43345.496527777781</v>
-      </c>
-      <c r="H58" s="1">
-        <v>43345.492361111108</v>
-      </c>
-      <c r="I58" s="1">
-        <v>43345.552083333336</v>
-      </c>
-      <c r="J58" s="1">
-        <v>43345.547222222223</v>
-      </c>
-      <c r="K58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>2658</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
       <c r="G59" s="1">
-        <v>43344.28125</v>
+        <v>43345.732638888891</v>
       </c>
       <c r="H59" s="1">
-        <v>43344.277083333334</v>
+        <v>43345.732638888891</v>
       </c>
       <c r="I59" s="1">
-        <v>43344.333333333336</v>
+        <v>43345.788194444445</v>
       </c>
       <c r="J59" s="1">
-        <v>43344.330555555556</v>
+        <v>43345.788194444445</v>
       </c>
       <c r="K59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2542,22 +2735,25 @@
         <v>5</v>
       </c>
       <c r="G60" s="1">
-        <v>43345.732638888891</v>
+        <v>43346.732638888891</v>
       </c>
       <c r="H60" s="1">
-        <v>43345.732638888891</v>
+        <v>43346.729166666664</v>
       </c>
       <c r="I60" s="1">
-        <v>43345.788194444445</v>
+        <v>43346.788194444445</v>
       </c>
       <c r="J60" s="1">
-        <v>43345.788194444445</v>
+        <v>43346.786111111112</v>
       </c>
       <c r="K60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2577,22 +2773,25 @@
         <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>43346.732638888891</v>
+        <v>43347.732638888891</v>
       </c>
       <c r="H61" s="1">
-        <v>43346.729166666664</v>
+        <v>43347.732638888891</v>
       </c>
       <c r="I61" s="1">
-        <v>43346.788194444445</v>
+        <v>43347.788194444445</v>
       </c>
       <c r="J61" s="1">
-        <v>43346.786111111112</v>
+        <v>43347.788194444445</v>
       </c>
       <c r="K61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2612,22 +2811,25 @@
         <v>5</v>
       </c>
       <c r="G62" s="1">
-        <v>43347.732638888891</v>
+        <v>43348.732638888891</v>
       </c>
       <c r="H62" s="1">
-        <v>43347.732638888891</v>
+        <v>43348.727777777778</v>
       </c>
       <c r="I62" s="1">
-        <v>43347.788194444445</v>
+        <v>43348.788194444445</v>
       </c>
       <c r="J62" s="1">
-        <v>43347.788194444445</v>
+        <v>43348.785416666666</v>
       </c>
       <c r="K62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2647,27 +2849,30 @@
         <v>5</v>
       </c>
       <c r="G63" s="1">
-        <v>43348.732638888891</v>
+        <v>43349.732638888891</v>
       </c>
       <c r="H63" s="1">
-        <v>43348.727777777778</v>
+        <v>43349.729861111111</v>
       </c>
       <c r="I63" s="1">
-        <v>43348.788194444445</v>
+        <v>43349.788194444445</v>
       </c>
       <c r="J63" s="1">
-        <v>43348.785416666666</v>
+        <v>43349.786111111112</v>
       </c>
       <c r="K63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2676,28 +2881,31 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>43349.732638888891</v>
+        <v>43345.631944444445</v>
       </c>
       <c r="H64" s="1">
-        <v>43349.729861111111</v>
+        <v>43345.625694444447</v>
       </c>
       <c r="I64" s="1">
-        <v>43349.788194444445</v>
+        <v>43345.684027777781</v>
       </c>
       <c r="J64" s="1">
-        <v>43349.786111111112</v>
+        <v>43345.677777777775</v>
       </c>
       <c r="K64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2717,22 +2925,25 @@
         <v>2</v>
       </c>
       <c r="G65" s="1">
-        <v>43345.631944444445</v>
+        <v>43346.631944444445</v>
       </c>
       <c r="H65" s="1">
-        <v>43345.625694444447</v>
+        <v>43346.624305555553</v>
       </c>
       <c r="I65" s="1">
-        <v>43345.684027777781</v>
+        <v>43346.684027777781</v>
       </c>
       <c r="J65" s="1">
-        <v>43345.677777777775</v>
+        <v>43346.683333333334</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2752,22 +2963,25 @@
         <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>43346.631944444445</v>
+        <v>43347.631944444445</v>
       </c>
       <c r="H66" s="1">
-        <v>43346.624305555553</v>
+        <v>43347.636805555558</v>
       </c>
       <c r="I66" s="1">
-        <v>43346.684027777781</v>
+        <v>43347.684027777781</v>
       </c>
       <c r="J66" s="1">
-        <v>43346.683333333334</v>
+        <v>43347.706944444442</v>
       </c>
       <c r="K66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2787,22 +3001,25 @@
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <v>43347.631944444445</v>
+        <v>43348.631944444445</v>
       </c>
       <c r="H67" s="1">
-        <v>43347.636805555558</v>
+        <v>43348.627083333333</v>
       </c>
       <c r="I67" s="1">
-        <v>43347.684027777781</v>
+        <v>43348.684027777781</v>
       </c>
       <c r="J67" s="1">
-        <v>43347.706944444442</v>
+        <v>43348.675694444442</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2822,27 +3039,30 @@
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <v>43348.631944444445</v>
+        <v>43349.631944444445</v>
       </c>
       <c r="H68" s="1">
-        <v>43348.627083333333</v>
+        <v>43349.624305555553</v>
       </c>
       <c r="I68" s="1">
-        <v>43348.684027777781</v>
+        <v>43349.684027777781</v>
       </c>
       <c r="J68" s="1">
-        <v>43348.675694444442</v>
+        <v>43349.683333333334</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2857,22 +3077,25 @@
         <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>43349.631944444445</v>
+        <v>43345.756944444445</v>
       </c>
       <c r="H69" s="1">
-        <v>43349.624305555553</v>
+        <v>43345.756944444445</v>
       </c>
       <c r="I69" s="1">
-        <v>43349.684027777781</v>
+        <v>43345.809027777781</v>
       </c>
       <c r="J69" s="1">
-        <v>43349.683333333334</v>
+        <v>43345.809027777781</v>
       </c>
       <c r="K69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2892,22 +3115,25 @@
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <v>43345.756944444445</v>
+        <v>43346.756944444445</v>
       </c>
       <c r="H70" s="1">
-        <v>43345.756944444445</v>
+        <v>43346.756944444445</v>
       </c>
       <c r="I70" s="1">
-        <v>43345.809027777781</v>
+        <v>43346.809027777781</v>
       </c>
       <c r="J70" s="1">
-        <v>43345.809027777781</v>
+        <v>43346.809027777781</v>
       </c>
       <c r="K70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2927,22 +3153,25 @@
         <v>2</v>
       </c>
       <c r="G71" s="1">
-        <v>43346.756944444445</v>
+        <v>43347.756944444445</v>
       </c>
       <c r="H71" s="1">
-        <v>43346.756944444445</v>
+        <v>43347.756944444445</v>
       </c>
       <c r="I71" s="1">
-        <v>43346.809027777781</v>
+        <v>43347.809027777781</v>
       </c>
       <c r="J71" s="1">
-        <v>43346.809027777781</v>
+        <v>43347.809027777781</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2962,22 +3191,25 @@
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>43347.756944444445</v>
+        <v>43348.756944444445</v>
       </c>
       <c r="H72" s="1">
-        <v>43347.756944444445</v>
+        <v>43348.748611111114</v>
       </c>
       <c r="I72" s="1">
-        <v>43347.809027777781</v>
+        <v>43348.809027777781</v>
       </c>
       <c r="J72" s="1">
-        <v>43347.809027777781</v>
+        <v>43348.800694444442</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2997,27 +3229,30 @@
         <v>2</v>
       </c>
       <c r="G73" s="1">
-        <v>43348.756944444445</v>
+        <v>43349.756944444445</v>
       </c>
       <c r="H73" s="1">
-        <v>43348.748611111114</v>
+        <v>43349.756944444445</v>
       </c>
       <c r="I73" s="1">
-        <v>43348.809027777781</v>
+        <v>43349.809027777781</v>
       </c>
       <c r="J73" s="1">
-        <v>43348.800694444442</v>
+        <v>43349.809027777781</v>
       </c>
       <c r="K73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3026,28 +3261,31 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="F74" t="s">
-        <v>2</v>
-      </c>
       <c r="G74" s="1">
-        <v>43349.756944444445</v>
+        <v>43344.878472222219</v>
       </c>
       <c r="H74" s="1">
-        <v>43349.756944444445</v>
+        <v>43344.875694444447</v>
       </c>
       <c r="I74" s="1">
-        <v>43349.809027777781</v>
+        <v>43344.934027777781</v>
       </c>
       <c r="J74" s="1">
-        <v>43349.809027777781</v>
+        <v>43344.926388888889</v>
       </c>
       <c r="K74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3067,22 +3305,25 @@
         <v>5</v>
       </c>
       <c r="G75" s="1">
-        <v>43344.878472222219</v>
+        <v>43345.878472222219</v>
       </c>
       <c r="H75" s="1">
-        <v>43344.875694444447</v>
+        <v>43345.87777777778</v>
       </c>
       <c r="I75" s="1">
-        <v>43344.934027777781</v>
+        <v>43345.934027777781</v>
       </c>
       <c r="J75" s="1">
-        <v>43344.926388888889</v>
+        <v>43345.928472222222</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3102,22 +3343,25 @@
         <v>5</v>
       </c>
       <c r="G76" s="1">
-        <v>43345.878472222219</v>
+        <v>43346.878472222219</v>
       </c>
       <c r="H76" s="1">
-        <v>43345.87777777778</v>
+        <v>43346.878472222219</v>
       </c>
       <c r="I76" s="1">
-        <v>43345.934027777781</v>
+        <v>43346.934027777781</v>
       </c>
       <c r="J76" s="1">
-        <v>43345.928472222222</v>
+        <v>43346.934027777781</v>
       </c>
       <c r="K76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3137,22 +3381,25 @@
         <v>5</v>
       </c>
       <c r="G77" s="1">
-        <v>43346.878472222219</v>
+        <v>43347.878472222219</v>
       </c>
       <c r="H77" s="1">
-        <v>43346.878472222219</v>
+        <v>43347.878472222219</v>
       </c>
       <c r="I77" s="1">
-        <v>43346.934027777781</v>
+        <v>43347.934027777781</v>
       </c>
       <c r="J77" s="1">
-        <v>43346.934027777781</v>
+        <v>43347.934027777781</v>
       </c>
       <c r="K77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3172,22 +3419,25 @@
         <v>5</v>
       </c>
       <c r="G78" s="1">
-        <v>43347.878472222219</v>
+        <v>43348.878472222219</v>
       </c>
       <c r="H78" s="1">
-        <v>43347.878472222219</v>
+        <v>43348.875694444447</v>
       </c>
       <c r="I78" s="1">
-        <v>43347.934027777781</v>
+        <v>43348.934027777781</v>
       </c>
       <c r="J78" s="1">
-        <v>43347.934027777781</v>
+        <v>43348.932638888888</v>
       </c>
       <c r="K78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3207,27 +3457,30 @@
         <v>5</v>
       </c>
       <c r="G79" s="1">
-        <v>43348.878472222219</v>
+        <v>43349.878472222219</v>
       </c>
       <c r="H79" s="1">
-        <v>43348.875694444447</v>
+        <v>43349.878472222219</v>
       </c>
       <c r="I79" s="1">
-        <v>43348.934027777781</v>
+        <v>43349.934027777781</v>
       </c>
       <c r="J79" s="1">
-        <v>43348.932638888888</v>
+        <v>43349.934027777781</v>
       </c>
       <c r="K79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3242,22 +3495,25 @@
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <v>43349.878472222219</v>
+        <v>43346.333333333336</v>
       </c>
       <c r="H80" s="1">
-        <v>43349.878472222219</v>
+        <v>43346.333333333336</v>
       </c>
       <c r="I80" s="1">
-        <v>43349.934027777781</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="J80" s="1">
-        <v>43349.934027777781</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="K80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3277,22 +3533,25 @@
         <v>5</v>
       </c>
       <c r="G81" s="1">
-        <v>43346.333333333336</v>
+        <v>43347.333333333336</v>
       </c>
       <c r="H81" s="1">
-        <v>43346.333333333336</v>
+        <v>43347.329861111109</v>
       </c>
       <c r="I81" s="1">
-        <v>43346.392361111109</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="J81" s="1">
-        <v>43346.392361111109</v>
+        <v>43347.38958333333</v>
       </c>
       <c r="K81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3312,22 +3571,25 @@
         <v>5</v>
       </c>
       <c r="G82" s="1">
-        <v>43347.333333333336</v>
+        <v>43348.333333333336</v>
       </c>
       <c r="H82" s="1">
-        <v>43347.329861111109</v>
+        <v>43348.333333333336</v>
       </c>
       <c r="I82" s="1">
-        <v>43347.392361111109</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="J82" s="1">
-        <v>43347.38958333333</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="K82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3347,22 +3609,25 @@
         <v>5</v>
       </c>
       <c r="G83" s="1">
-        <v>43348.333333333336</v>
+        <v>43349.333333333336</v>
       </c>
       <c r="H83" s="1">
-        <v>43348.333333333336</v>
+        <v>43349.331944444442</v>
       </c>
       <c r="I83" s="1">
-        <v>43348.392361111109</v>
+        <v>43349.392361111109</v>
       </c>
       <c r="J83" s="1">
-        <v>43348.392361111109</v>
+        <v>43349.390972222223</v>
       </c>
       <c r="K83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3382,27 +3647,30 @@
         <v>5</v>
       </c>
       <c r="G84" s="1">
-        <v>43349.333333333336</v>
+        <v>43350.333333333336</v>
       </c>
       <c r="H84" s="1">
-        <v>43349.331944444442</v>
+        <v>43350.331250000003</v>
       </c>
       <c r="I84" s="1">
-        <v>43349.392361111109</v>
+        <v>43350.392361111109</v>
       </c>
       <c r="J84" s="1">
-        <v>43349.390972222223</v>
+        <v>43350.39166666667</v>
       </c>
       <c r="K84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85">
-        <v>2684</v>
+        <v>2696</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3411,28 +3679,31 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" s="1">
-        <v>43350.333333333336</v>
+        <v>43344.416666666664</v>
       </c>
       <c r="H85" s="1">
-        <v>43350.331250000003</v>
+        <v>43344.416666666664</v>
       </c>
       <c r="I85" s="1">
-        <v>43350.392361111109</v>
+        <v>43344.46875</v>
       </c>
       <c r="J85" s="1">
-        <v>43350.39166666667</v>
+        <v>43344.46875</v>
       </c>
       <c r="K85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3452,22 +3723,25 @@
         <v>2</v>
       </c>
       <c r="G86" s="1">
-        <v>43344.416666666664</v>
+        <v>43345.416666666664</v>
       </c>
       <c r="H86" s="1">
-        <v>43344.416666666664</v>
+        <v>43345.412499999999</v>
       </c>
       <c r="I86" s="1">
-        <v>43344.46875</v>
+        <v>43345.46875</v>
       </c>
       <c r="J86" s="1">
-        <v>43344.46875</v>
+        <v>43345.463194444441</v>
       </c>
       <c r="K86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3487,22 +3761,25 @@
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <v>43345.416666666664</v>
+        <v>43346.416666666664</v>
       </c>
       <c r="H87" s="1">
-        <v>43345.412499999999</v>
+        <v>43346.422222222223</v>
       </c>
       <c r="I87" s="1">
-        <v>43345.46875</v>
+        <v>43346.46875</v>
       </c>
       <c r="J87" s="1">
-        <v>43345.463194444441</v>
+        <v>43346.48541666667</v>
       </c>
       <c r="K87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3522,22 +3799,25 @@
         <v>2</v>
       </c>
       <c r="G88" s="1">
-        <v>43346.416666666664</v>
+        <v>43347.416666666664</v>
       </c>
       <c r="H88" s="1">
-        <v>43346.422222222223</v>
+        <v>43347.411805555559</v>
       </c>
       <c r="I88" s="1">
-        <v>43346.46875</v>
+        <v>43347.46875</v>
       </c>
       <c r="J88" s="1">
-        <v>43346.48541666667</v>
+        <v>43347.493055555555</v>
       </c>
       <c r="K88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3557,22 +3837,25 @@
         <v>2</v>
       </c>
       <c r="G89" s="1">
-        <v>43347.416666666664</v>
+        <v>43348.416666666664</v>
       </c>
       <c r="H89" s="1">
-        <v>43347.411805555559</v>
+        <v>43348.431944444441</v>
       </c>
       <c r="I89" s="1">
-        <v>43347.46875</v>
+        <v>43348.46875</v>
       </c>
       <c r="J89" s="1">
-        <v>43347.493055555555</v>
+        <v>43348.487500000003</v>
       </c>
       <c r="K89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3592,22 +3875,25 @@
         <v>2</v>
       </c>
       <c r="G90" s="1">
-        <v>43348.416666666664</v>
+        <v>43349.416666666664</v>
       </c>
       <c r="H90" s="1">
-        <v>43348.431944444441</v>
+        <v>43349.410416666666</v>
       </c>
       <c r="I90" s="1">
-        <v>43348.46875</v>
+        <v>43349.46875</v>
       </c>
       <c r="J90" s="1">
-        <v>43348.487500000003</v>
+        <v>43349.456944444442</v>
       </c>
       <c r="K90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3627,27 +3913,30 @@
         <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>43349.416666666664</v>
+        <v>43350.416666666664</v>
       </c>
       <c r="H91" s="1">
-        <v>43349.410416666666</v>
+        <v>43350.416666666664</v>
       </c>
       <c r="I91" s="1">
-        <v>43349.46875</v>
+        <v>43350.46875</v>
       </c>
       <c r="J91" s="1">
-        <v>43349.456944444442</v>
+        <v>43350.46875</v>
       </c>
       <c r="K91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3656,33 +3945,36 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>5</v>
       </c>
-      <c r="F92" t="s">
-        <v>2</v>
-      </c>
       <c r="G92" s="1">
-        <v>43350.416666666664</v>
+        <v>43345.375</v>
       </c>
       <c r="H92" s="1">
-        <v>43350.416666666664</v>
+        <v>43345.375</v>
       </c>
       <c r="I92" s="1">
-        <v>43350.46875</v>
+        <v>43345.430555555555</v>
       </c>
       <c r="J92" s="1">
-        <v>43350.46875</v>
+        <v>43345.430555555555</v>
       </c>
       <c r="K92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
       <c r="B93">
-        <v>2706</v>
+        <v>2772</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3694,33 +3986,36 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G93" s="1">
-        <v>43345.375</v>
+        <v>43345.378472222219</v>
       </c>
       <c r="H93" s="1">
-        <v>43345.375</v>
+        <v>43345.378472222219</v>
       </c>
       <c r="I93" s="1">
-        <v>43345.430555555555</v>
+        <v>43345.427083333336</v>
       </c>
       <c r="J93" s="1">
-        <v>43345.430555555555</v>
+        <v>43345.420138888891</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>2716</v>
+        <v>2781</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -3729,30 +4024,33 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G94" s="1">
-        <v>43348.5</v>
+        <v>43344.732638888891</v>
       </c>
       <c r="H94" s="1">
-        <v>43348.5</v>
+        <v>43344.726388888892</v>
       </c>
       <c r="I94" s="1">
-        <v>43348.604166666664</v>
+        <v>43344.78125</v>
       </c>
       <c r="J94" s="1">
-        <v>43348.604166666664</v>
+        <v>43344.772222222222</v>
       </c>
       <c r="K94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95">
-        <v>2772</v>
+        <v>2799</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3767,27 +4065,30 @@
         <v>6</v>
       </c>
       <c r="G95" s="1">
-        <v>43345.378472222219</v>
+        <v>43345.53125</v>
       </c>
       <c r="H95" s="1">
-        <v>43345.378472222219</v>
+        <v>43345.524305555555</v>
       </c>
       <c r="I95" s="1">
-        <v>43345.427083333336</v>
+        <v>43345.576388888891</v>
       </c>
       <c r="J95" s="1">
-        <v>43345.420138888891</v>
+        <v>43345.572916666664</v>
       </c>
       <c r="K95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96">
-        <v>2781</v>
+        <v>2806</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3796,33 +4097,36 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
-        <v>43344.732638888891</v>
+        <v>43350.833333333336</v>
       </c>
       <c r="H96" s="1">
-        <v>43344.726388888892</v>
+        <v>43350.829861111109</v>
       </c>
       <c r="I96" s="1">
-        <v>43344.78125</v>
+        <v>43350.885416666664</v>
       </c>
       <c r="J96" s="1">
-        <v>43344.772222222222</v>
+        <v>43350.879861111112</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97">
-        <v>2799</v>
+        <v>2816</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3831,33 +4135,36 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
-        <v>43345.53125</v>
+        <v>43346.506944444445</v>
       </c>
       <c r="H97" s="1">
-        <v>43345.524305555555</v>
+        <v>43346.505555555559</v>
       </c>
       <c r="I97" s="1">
-        <v>43345.576388888891</v>
+        <v>43346.5625</v>
       </c>
       <c r="J97" s="1">
-        <v>43345.572916666664</v>
+        <v>43346.561805555553</v>
       </c>
       <c r="K97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98">
-        <v>2806</v>
+        <v>2816</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3872,22 +4179,25 @@
         <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>43350.833333333336</v>
+        <v>43347.506944444445</v>
       </c>
       <c r="H98" s="1">
-        <v>43350.829861111109</v>
+        <v>43347.504861111112</v>
       </c>
       <c r="I98" s="1">
-        <v>43350.885416666664</v>
+        <v>43347.5625</v>
       </c>
       <c r="J98" s="1">
-        <v>43350.879861111112</v>
+        <v>43347.556944444441</v>
       </c>
       <c r="K98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3907,22 +4217,25 @@
         <v>2</v>
       </c>
       <c r="G99" s="1">
-        <v>43346.506944444445</v>
+        <v>43348.506944444445</v>
       </c>
       <c r="H99" s="1">
-        <v>43346.505555555559</v>
+        <v>43348.50277777778</v>
       </c>
       <c r="I99" s="1">
-        <v>43346.5625</v>
+        <v>43348.5625</v>
       </c>
       <c r="J99" s="1">
-        <v>43346.561805555553</v>
+        <v>43348.561805555553</v>
       </c>
       <c r="K99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3942,27 +4255,30 @@
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>43347.506944444445</v>
+        <v>43349.506944444445</v>
       </c>
       <c r="H100" s="1">
-        <v>43347.504861111112</v>
+        <v>43349.506944444445</v>
       </c>
       <c r="I100" s="1">
-        <v>43347.5625</v>
+        <v>43349.5625</v>
       </c>
       <c r="J100" s="1">
-        <v>43347.556944444441</v>
+        <v>43349.5625</v>
       </c>
       <c r="K100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3971,33 +4287,36 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
         <v>5</v>
       </c>
-      <c r="F101" t="s">
-        <v>2</v>
-      </c>
       <c r="G101" s="1">
-        <v>43348.506944444445</v>
+        <v>43346.618055555555</v>
       </c>
       <c r="H101" s="1">
-        <v>43348.50277777778</v>
+        <v>43346.615277777775</v>
       </c>
       <c r="I101" s="1">
-        <v>43348.5625</v>
+        <v>43346.673611111109</v>
       </c>
       <c r="J101" s="1">
-        <v>43348.561805555553</v>
+        <v>43346.671527777777</v>
       </c>
       <c r="K101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4006,28 +4325,31 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
         <v>5</v>
       </c>
-      <c r="F102" t="s">
-        <v>2</v>
-      </c>
       <c r="G102" s="1">
-        <v>43349.506944444445</v>
+        <v>43347.618055555555</v>
       </c>
       <c r="H102" s="1">
-        <v>43349.506944444445</v>
+        <v>43347.615277777775</v>
       </c>
       <c r="I102" s="1">
-        <v>43349.5625</v>
+        <v>43347.673611111109</v>
       </c>
       <c r="J102" s="1">
-        <v>43349.5625</v>
+        <v>43347.664583333331</v>
       </c>
       <c r="K102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4047,22 +4369,25 @@
         <v>5</v>
       </c>
       <c r="G103" s="1">
-        <v>43346.618055555555</v>
+        <v>43348.618055555555</v>
       </c>
       <c r="H103" s="1">
-        <v>43346.615277777775</v>
+        <v>43348.611805555556</v>
       </c>
       <c r="I103" s="1">
-        <v>43346.673611111109</v>
+        <v>43348.673611111109</v>
       </c>
       <c r="J103" s="1">
-        <v>43346.671527777777</v>
+        <v>43348.664583333331</v>
       </c>
       <c r="K103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4082,27 +4407,30 @@
         <v>5</v>
       </c>
       <c r="G104" s="1">
-        <v>43347.618055555555</v>
+        <v>43349.618055555555</v>
       </c>
       <c r="H104" s="1">
-        <v>43347.615277777775</v>
+        <v>43349.618055555555</v>
       </c>
       <c r="I104" s="1">
-        <v>43347.673611111109</v>
+        <v>43349.673611111109</v>
       </c>
       <c r="J104" s="1">
-        <v>43347.664583333331</v>
+        <v>43349.673611111109</v>
       </c>
       <c r="K104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105">
-        <v>2817</v>
+        <v>2836</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4117,27 +4445,30 @@
         <v>5</v>
       </c>
       <c r="G105" s="1">
-        <v>43348.618055555555</v>
+        <v>43344.510416666664</v>
       </c>
       <c r="H105" s="1">
-        <v>43348.611805555556</v>
+        <v>43344.511111111111</v>
       </c>
       <c r="I105" s="1">
-        <v>43348.673611111109</v>
+        <v>43344.565972222219</v>
       </c>
       <c r="J105" s="1">
-        <v>43348.664583333331</v>
+        <v>43344.563888888886</v>
       </c>
       <c r="K105" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106">
-        <v>2817</v>
+        <v>2849</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4152,27 +4483,30 @@
         <v>5</v>
       </c>
       <c r="G106" s="1">
-        <v>43349.618055555555</v>
+        <v>43346.288194444445</v>
       </c>
       <c r="H106" s="1">
-        <v>43349.618055555555</v>
+        <v>43346.285416666666</v>
       </c>
       <c r="I106" s="1">
-        <v>43349.673611111109</v>
+        <v>43346.34375</v>
       </c>
       <c r="J106" s="1">
-        <v>43349.673611111109</v>
+        <v>43346.337500000001</v>
       </c>
       <c r="K106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107">
-        <v>2836</v>
+        <v>2849</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4187,22 +4521,25 @@
         <v>5</v>
       </c>
       <c r="G107" s="1">
-        <v>43344.510416666664</v>
+        <v>43347.288194444445</v>
       </c>
       <c r="H107" s="1">
-        <v>43344.511111111111</v>
+        <v>43347.281944444447</v>
       </c>
       <c r="I107" s="1">
-        <v>43344.565972222219</v>
+        <v>43347.34375</v>
       </c>
       <c r="J107" s="1">
-        <v>43344.563888888886</v>
+        <v>43347.336111111108</v>
       </c>
       <c r="K107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4222,22 +4559,25 @@
         <v>5</v>
       </c>
       <c r="G108" s="1">
-        <v>43346.288194444445</v>
+        <v>43348.288194444445</v>
       </c>
       <c r="H108" s="1">
-        <v>43346.285416666666</v>
+        <v>43348.280555555553</v>
       </c>
       <c r="I108" s="1">
-        <v>43346.34375</v>
+        <v>43348.34375</v>
       </c>
       <c r="J108" s="1">
-        <v>43346.337500000001</v>
+        <v>43348.336111111108</v>
       </c>
       <c r="K108" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4257,22 +4597,25 @@
         <v>5</v>
       </c>
       <c r="G109" s="1">
-        <v>43347.288194444445</v>
+        <v>43349.288194444445</v>
       </c>
       <c r="H109" s="1">
-        <v>43347.281944444447</v>
+        <v>43349.283333333333</v>
       </c>
       <c r="I109" s="1">
-        <v>43347.34375</v>
+        <v>43349.34375</v>
       </c>
       <c r="J109" s="1">
-        <v>43347.336111111108</v>
+        <v>43349.338888888888</v>
       </c>
       <c r="K109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4292,27 +4635,30 @@
         <v>5</v>
       </c>
       <c r="G110" s="1">
-        <v>43348.288194444445</v>
+        <v>43350.288194444445</v>
       </c>
       <c r="H110" s="1">
-        <v>43348.280555555553</v>
+        <v>43350.288194444445</v>
       </c>
       <c r="I110" s="1">
-        <v>43348.34375</v>
+        <v>43350.34375</v>
       </c>
       <c r="J110" s="1">
-        <v>43348.336111111108</v>
+        <v>43350.34375</v>
       </c>
       <c r="K110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111">
-        <v>2849</v>
+        <v>2878</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4327,27 +4673,30 @@
         <v>5</v>
       </c>
       <c r="G111" s="1">
-        <v>43349.288194444445</v>
+        <v>43345.298611111109</v>
       </c>
       <c r="H111" s="1">
-        <v>43349.283333333333</v>
+        <v>43345.290277777778</v>
       </c>
       <c r="I111" s="1">
-        <v>43349.34375</v>
+        <v>43345.350694444445</v>
       </c>
       <c r="J111" s="1">
-        <v>43349.338888888888</v>
+        <v>43345.344444444447</v>
       </c>
       <c r="K111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112">
-        <v>2849</v>
+        <v>2938</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4356,63 +4705,69 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>43346.256944444445</v>
+      </c>
+      <c r="H112" s="1">
+        <v>43346.254166666666</v>
+      </c>
+      <c r="I112" s="1">
+        <v>43346.309027777781</v>
+      </c>
+      <c r="J112" s="1">
+        <v>43346.303472222222</v>
+      </c>
+      <c r="K112" t="s">
+        <v>4</v>
+      </c>
+      <c r="L112" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>2938</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="1">
-        <v>43350.288194444445</v>
-      </c>
-      <c r="H112" s="1">
-        <v>43350.288194444445</v>
-      </c>
-      <c r="I112" s="1">
-        <v>43350.34375</v>
-      </c>
-      <c r="J112" s="1">
-        <v>43350.34375</v>
-      </c>
-      <c r="K112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>2878</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G113" s="1">
-        <v>43345.298611111109</v>
+        <v>43347.256944444445</v>
       </c>
       <c r="H113" s="1">
-        <v>43345.290277777778</v>
+        <v>43347.248611111114</v>
       </c>
       <c r="I113" s="1">
-        <v>43345.350694444445</v>
+        <v>43347.309027777781</v>
       </c>
       <c r="J113" s="1">
-        <v>43345.344444444447</v>
+        <v>43347.307638888888</v>
       </c>
       <c r="K113" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4432,22 +4787,25 @@
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <v>43346.256944444445</v>
+        <v>43348.256944444445</v>
       </c>
       <c r="H114" s="1">
-        <v>43346.254166666666</v>
+        <v>43348.25</v>
       </c>
       <c r="I114" s="1">
-        <v>43346.309027777781</v>
+        <v>43348.309027777781</v>
       </c>
       <c r="J114" s="1">
-        <v>43346.303472222222</v>
+        <v>43348.292361111111</v>
       </c>
       <c r="K114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4467,22 +4825,25 @@
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <v>43347.256944444445</v>
+        <v>43349.256944444445</v>
       </c>
       <c r="H115" s="1">
-        <v>43347.248611111114</v>
+        <v>43349.252083333333</v>
       </c>
       <c r="I115" s="1">
-        <v>43347.309027777781</v>
+        <v>43349.309027777781</v>
       </c>
       <c r="J115" s="1">
-        <v>43347.307638888888</v>
+        <v>43349.300694444442</v>
       </c>
       <c r="K115" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4502,27 +4863,30 @@
         <v>2</v>
       </c>
       <c r="G116" s="1">
-        <v>43348.256944444445</v>
+        <v>43350.256944444445</v>
       </c>
       <c r="H116" s="1">
-        <v>43348.25</v>
+        <v>43350.25277777778</v>
       </c>
       <c r="I116" s="1">
-        <v>43348.309027777781</v>
+        <v>43350.309027777781</v>
       </c>
       <c r="J116" s="1">
-        <v>43348.292361111111</v>
+        <v>43350.300694444442</v>
       </c>
       <c r="K116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
       <c r="B117">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4537,27 +4901,30 @@
         <v>2</v>
       </c>
       <c r="G117" s="1">
-        <v>43349.256944444445</v>
+        <v>43345.850694444445</v>
       </c>
       <c r="H117" s="1">
-        <v>43349.252083333333</v>
+        <v>43345.850694444445</v>
       </c>
       <c r="I117" s="1">
-        <v>43349.309027777781</v>
+        <v>43345.90625</v>
       </c>
       <c r="J117" s="1">
-        <v>43349.300694444442</v>
+        <v>43345.90625</v>
       </c>
       <c r="K117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="B118">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4572,22 +4939,25 @@
         <v>2</v>
       </c>
       <c r="G118" s="1">
-        <v>43350.256944444445</v>
+        <v>43346.850694444445</v>
       </c>
       <c r="H118" s="1">
-        <v>43350.25277777778</v>
+        <v>43346.845833333333</v>
       </c>
       <c r="I118" s="1">
-        <v>43350.309027777781</v>
+        <v>43346.90625</v>
       </c>
       <c r="J118" s="1">
-        <v>43350.300694444442</v>
+        <v>43346.90347222222</v>
       </c>
       <c r="K118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4607,22 +4977,25 @@
         <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>43345.850694444445</v>
+        <v>43347.850694444445</v>
       </c>
       <c r="H119" s="1">
-        <v>43345.850694444445</v>
+        <v>43347.855555555558</v>
       </c>
       <c r="I119" s="1">
-        <v>43345.90625</v>
+        <v>43347.90625</v>
       </c>
       <c r="J119" s="1">
-        <v>43345.90625</v>
+        <v>43347.904166666667</v>
       </c>
       <c r="K119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4642,22 +5015,25 @@
         <v>2</v>
       </c>
       <c r="G120" s="1">
-        <v>43346.850694444445</v>
+        <v>43348.850694444445</v>
       </c>
       <c r="H120" s="1">
-        <v>43346.845833333333</v>
+        <v>43348.845833333333</v>
       </c>
       <c r="I120" s="1">
-        <v>43346.90625</v>
+        <v>43348.90625</v>
       </c>
       <c r="J120" s="1">
-        <v>43346.90347222222</v>
+        <v>43348.895833333336</v>
       </c>
       <c r="K120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4677,27 +5053,30 @@
         <v>2</v>
       </c>
       <c r="G121" s="1">
-        <v>43347.850694444445</v>
+        <v>43349.850694444445</v>
       </c>
       <c r="H121" s="1">
-        <v>43347.855555555558</v>
+        <v>43349.849305555559</v>
       </c>
       <c r="I121" s="1">
-        <v>43347.90625</v>
+        <v>43349.90625</v>
       </c>
       <c r="J121" s="1">
-        <v>43347.904166666667</v>
+        <v>43349.896527777775</v>
       </c>
       <c r="K121" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122">
-        <v>2940</v>
+        <v>2966</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4712,27 +5091,30 @@
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <v>43348.850694444445</v>
+        <v>43344.802083333336</v>
       </c>
       <c r="H122" s="1">
-        <v>43348.845833333333</v>
+        <v>43344.802083333336</v>
       </c>
       <c r="I122" s="1">
-        <v>43348.90625</v>
+        <v>43344.854166666664</v>
       </c>
       <c r="J122" s="1">
-        <v>43348.895833333336</v>
+        <v>43344.852777777778</v>
       </c>
       <c r="K122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
       <c r="B123">
-        <v>2940</v>
+        <v>4009</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4741,33 +5123,36 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G123" s="1">
-        <v>43349.850694444445</v>
+        <v>43345.833333333336</v>
       </c>
       <c r="H123" s="1">
-        <v>43349.849305555559</v>
+        <v>43345.829861111109</v>
       </c>
       <c r="I123" s="1">
-        <v>43349.90625</v>
+        <v>43345.885416666664</v>
       </c>
       <c r="J123" s="1">
-        <v>43349.896527777775</v>
+        <v>43345.882638888892</v>
       </c>
       <c r="K123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
       <c r="B124">
-        <v>2966</v>
+        <v>4040</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4776,33 +5161,36 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" s="1">
-        <v>43344.802083333336</v>
+        <v>43346.322916666664</v>
       </c>
       <c r="H124" s="1">
-        <v>43344.802083333336</v>
+        <v>43346.320833333331</v>
       </c>
       <c r="I124" s="1">
-        <v>43344.854166666664</v>
+        <v>43346.381944444445</v>
       </c>
       <c r="J124" s="1">
-        <v>43344.852777777778</v>
+        <v>43346.379861111112</v>
       </c>
       <c r="K124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
       <c r="B125">
-        <v>4009</v>
+        <v>4040</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4814,25 +5202,28 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G125" s="1">
-        <v>43345.833333333336</v>
+        <v>43347.322916666664</v>
       </c>
       <c r="H125" s="1">
-        <v>43345.829861111109</v>
+        <v>43347.318055555559</v>
       </c>
       <c r="I125" s="1">
-        <v>43345.885416666664</v>
+        <v>43347.381944444445</v>
       </c>
       <c r="J125" s="1">
-        <v>43345.882638888892</v>
+        <v>43347.37777777778</v>
       </c>
       <c r="K125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4852,22 +5243,25 @@
         <v>3</v>
       </c>
       <c r="G126" s="1">
-        <v>43346.322916666664</v>
+        <v>43348.322916666664</v>
       </c>
       <c r="H126" s="1">
-        <v>43346.320833333331</v>
+        <v>43348.323611111111</v>
       </c>
       <c r="I126" s="1">
-        <v>43346.381944444445</v>
+        <v>43348.381944444445</v>
       </c>
       <c r="J126" s="1">
-        <v>43346.379861111112</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="K126" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4887,22 +5281,25 @@
         <v>3</v>
       </c>
       <c r="G127" s="1">
-        <v>43347.322916666664</v>
+        <v>43349.322916666664</v>
       </c>
       <c r="H127" s="1">
-        <v>43347.318055555559</v>
+        <v>43349.374305555553</v>
       </c>
       <c r="I127" s="1">
-        <v>43347.381944444445</v>
+        <v>43349.381944444445</v>
       </c>
       <c r="J127" s="1">
-        <v>43347.37777777778</v>
+        <v>43349.433333333334</v>
       </c>
       <c r="K127" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4922,27 +5319,30 @@
         <v>3</v>
       </c>
       <c r="G128" s="1">
-        <v>43348.322916666664</v>
+        <v>43350.322916666664</v>
       </c>
       <c r="H128" s="1">
-        <v>43348.323611111111</v>
+        <v>43350.315972222219</v>
       </c>
       <c r="I128" s="1">
-        <v>43348.381944444445</v>
+        <v>43350.381944444445</v>
       </c>
       <c r="J128" s="1">
-        <v>43348.392361111109</v>
+        <v>43350.368750000001</v>
       </c>
       <c r="K128" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129">
-        <v>4040</v>
+        <v>4045</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4951,33 +5351,36 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1">
-        <v>43349.322916666664</v>
+        <v>43345.295138888891</v>
       </c>
       <c r="H129" s="1">
-        <v>43349.374305555553</v>
+        <v>43345.288888888892</v>
       </c>
       <c r="I129" s="1">
-        <v>43349.381944444445</v>
+        <v>43345.34375</v>
       </c>
       <c r="J129" s="1">
-        <v>43349.433333333334</v>
+        <v>43345.330555555556</v>
       </c>
       <c r="K129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130">
-        <v>4040</v>
+        <v>4171</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4989,33 +5392,36 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G130" s="1">
-        <v>43350.322916666664</v>
+        <v>43344.267361111109</v>
       </c>
       <c r="H130" s="1">
-        <v>43350.315972222219</v>
+        <v>43344.263194444444</v>
       </c>
       <c r="I130" s="1">
-        <v>43350.381944444445</v>
+        <v>43344.3125</v>
       </c>
       <c r="J130" s="1">
-        <v>43350.368750000001</v>
+        <v>43344.311805555553</v>
       </c>
       <c r="K130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
       <c r="B131">
-        <v>4040</v>
+        <v>4171</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -5024,30 +5430,33 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G131" s="1">
-        <v>43349.323611111111</v>
+        <v>43346.263888888891</v>
       </c>
       <c r="H131" s="1">
-        <v>43349.323611111111</v>
+        <v>43346.260416666664</v>
       </c>
       <c r="I131" s="1">
-        <v>43349.338194444441</v>
+        <v>43346.309027777781</v>
       </c>
       <c r="J131" s="1">
-        <v>43349.338194444441</v>
+        <v>43346.305555555555</v>
       </c>
       <c r="K131" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
       <c r="B132">
-        <v>4045</v>
+        <v>4171</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5056,36 +5465,39 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
         <v>6</v>
       </c>
-      <c r="F132" t="s">
-        <v>2</v>
-      </c>
       <c r="G132" s="1">
-        <v>43345.295138888891</v>
+        <v>43347.263888888891</v>
       </c>
       <c r="H132" s="1">
-        <v>43345.288888888892</v>
+        <v>43347.263888888891</v>
       </c>
       <c r="I132" s="1">
-        <v>43345.34375</v>
+        <v>43347.309027777781</v>
       </c>
       <c r="J132" s="1">
-        <v>43345.330555555556</v>
+        <v>43347.306250000001</v>
       </c>
       <c r="K132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
       <c r="B133">
-        <v>4153</v>
+        <v>4171</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -5094,25 +5506,28 @@
         <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G133" s="1">
-        <v>43347.84375</v>
+        <v>43348.267361111109</v>
       </c>
       <c r="H133" s="1">
-        <v>43347.84375</v>
+        <v>43348.267361111109</v>
       </c>
       <c r="I133" s="1">
-        <v>43347.850694444445</v>
+        <v>43348.3125</v>
       </c>
       <c r="J133" s="1">
-        <v>43347.850694444445</v>
+        <v>43348.3125</v>
       </c>
       <c r="K133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -5132,22 +5547,25 @@
         <v>6</v>
       </c>
       <c r="G134" s="1">
-        <v>43344.267361111109</v>
+        <v>43349.263888888891</v>
       </c>
       <c r="H134" s="1">
-        <v>43344.263194444444</v>
+        <v>43349.259027777778</v>
       </c>
       <c r="I134" s="1">
-        <v>43344.3125</v>
+        <v>43349.309027777781</v>
       </c>
       <c r="J134" s="1">
-        <v>43344.311805555553</v>
+        <v>43349.307638888888</v>
       </c>
       <c r="K134" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5167,27 +5585,30 @@
         <v>6</v>
       </c>
       <c r="G135" s="1">
-        <v>43346.263888888891</v>
+        <v>43350.267361111109</v>
       </c>
       <c r="H135" s="1">
-        <v>43346.260416666664</v>
+        <v>43350.267361111109</v>
       </c>
       <c r="I135" s="1">
-        <v>43346.309027777781</v>
+        <v>43350.3125</v>
       </c>
       <c r="J135" s="1">
-        <v>43346.305555555555</v>
+        <v>43350.3125</v>
       </c>
       <c r="K135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136">
-        <v>4171</v>
+        <v>4174</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5196,133 +5617,145 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F136" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>43345.90625</v>
+      </c>
+      <c r="H136" s="1">
+        <v>43345.90625</v>
+      </c>
+      <c r="I136" s="1">
+        <v>43345.951388888891</v>
+      </c>
+      <c r="J136" s="1">
+        <v>43345.951388888891</v>
+      </c>
+      <c r="K136" t="s">
+        <v>4</v>
+      </c>
+      <c r="L136" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>4174</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="1">
-        <v>43347.263888888891</v>
-      </c>
-      <c r="H136" s="1">
-        <v>43347.263888888891</v>
-      </c>
-      <c r="I136" s="1">
-        <v>43347.309027777781</v>
-      </c>
-      <c r="J136" s="1">
-        <v>43347.306250000001</v>
-      </c>
-      <c r="K136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>4171</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
-        <v>2</v>
-      </c>
       <c r="F137" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="1">
+        <v>43346.90625</v>
+      </c>
+      <c r="H137" s="1">
+        <v>43346.90625</v>
+      </c>
+      <c r="I137" s="1">
+        <v>43346.951388888891</v>
+      </c>
+      <c r="J137" s="1">
+        <v>43346.951388888891</v>
+      </c>
+      <c r="K137" t="s">
+        <v>4</v>
+      </c>
+      <c r="L137" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>4174</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="1">
-        <v>43348.267361111109</v>
-      </c>
-      <c r="H137" s="1">
-        <v>43348.267361111109</v>
-      </c>
-      <c r="I137" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="J137" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="K137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>4171</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>2</v>
-      </c>
       <c r="F138" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1">
+        <v>43347.90625</v>
+      </c>
+      <c r="H138" s="1">
+        <v>43347.90625</v>
+      </c>
+      <c r="I138" s="1">
+        <v>43347.951388888891</v>
+      </c>
+      <c r="J138" s="1">
+        <v>43347.951388888891</v>
+      </c>
+      <c r="K138" t="s">
+        <v>4</v>
+      </c>
+      <c r="L138" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>4174</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="1">
-        <v>43349.263888888891</v>
-      </c>
-      <c r="H138" s="1">
-        <v>43349.259027777778</v>
-      </c>
-      <c r="I138" s="1">
-        <v>43349.309027777781</v>
-      </c>
-      <c r="J138" s="1">
-        <v>43349.307638888888</v>
-      </c>
-      <c r="K138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>4171</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>2</v>
-      </c>
       <c r="F139" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G139" s="1">
-        <v>43350.267361111109</v>
+        <v>43348.90625</v>
       </c>
       <c r="H139" s="1">
-        <v>43350.267361111109</v>
+        <v>43348.899305555555</v>
       </c>
       <c r="I139" s="1">
-        <v>43350.3125</v>
+        <v>43348.951388888891</v>
       </c>
       <c r="J139" s="1">
-        <v>43350.3125</v>
+        <v>43348.945833333331</v>
       </c>
       <c r="K139" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -5342,237 +5775,258 @@
         <v>2</v>
       </c>
       <c r="G140" s="1">
-        <v>43345.90625</v>
+        <v>43349.90625</v>
       </c>
       <c r="H140" s="1">
-        <v>43345.90625</v>
+        <v>43349.90902777778</v>
       </c>
       <c r="I140" s="1">
-        <v>43345.951388888891</v>
+        <v>43349.951388888891</v>
       </c>
       <c r="J140" s="1">
-        <v>43345.951388888891</v>
+        <v>43349.950694444444</v>
       </c>
       <c r="K140" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>4174</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="L140" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="3">
+        <v>4232</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" s="4">
+        <v>43345.274305555555</v>
+      </c>
+      <c r="H141" s="4">
+        <v>43345.263888888891</v>
+      </c>
+      <c r="I141" s="4">
+        <v>43345.329861111109</v>
+      </c>
+      <c r="J141" s="4">
+        <v>43345.31527777778</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L141" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>4264</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
         <v>6</v>
       </c>
-      <c r="F141" t="s">
-        <v>2</v>
-      </c>
-      <c r="G141" s="1">
-        <v>43346.90625</v>
-      </c>
-      <c r="H141" s="1">
-        <v>43346.90625</v>
-      </c>
-      <c r="I141" s="1">
-        <v>43346.951388888891</v>
-      </c>
-      <c r="J141" s="1">
-        <v>43346.951388888891</v>
-      </c>
-      <c r="K141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>4174</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="G142" s="1">
+        <v>43345.451388888891</v>
+      </c>
+      <c r="H142" s="1">
+        <v>43345.450694444444</v>
+      </c>
+      <c r="I142" s="1">
+        <v>43345.5</v>
+      </c>
+      <c r="J142" s="1">
+        <v>43345.491666666669</v>
+      </c>
+      <c r="K142" t="s">
+        <v>4</v>
+      </c>
+      <c r="L142" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>4272</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
         <v>6</v>
       </c>
-      <c r="F142" t="s">
-        <v>2</v>
-      </c>
-      <c r="G142" s="1">
-        <v>43347.90625</v>
-      </c>
-      <c r="H142" s="1">
-        <v>43347.90625</v>
-      </c>
-      <c r="I142" s="1">
-        <v>43347.951388888891</v>
-      </c>
-      <c r="J142" s="1">
-        <v>43347.951388888891</v>
-      </c>
-      <c r="K142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>4174</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="G143" s="1">
+        <v>43344.885416666664</v>
+      </c>
+      <c r="H143" s="1">
+        <v>43344.885416666664</v>
+      </c>
+      <c r="I143" s="1">
+        <v>43344.923611111109</v>
+      </c>
+      <c r="J143" s="1">
+        <v>43344.923611111109</v>
+      </c>
+      <c r="K143" t="s">
+        <v>4</v>
+      </c>
+      <c r="L143" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>4272</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
         <v>6</v>
       </c>
-      <c r="F143" t="s">
-        <v>2</v>
-      </c>
-      <c r="G143" s="1">
-        <v>43348.90625</v>
-      </c>
-      <c r="H143" s="1">
-        <v>43348.899305555555</v>
-      </c>
-      <c r="I143" s="1">
-        <v>43348.951388888891</v>
-      </c>
-      <c r="J143" s="1">
-        <v>43348.945833333331</v>
-      </c>
-      <c r="K143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>4174</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="G144" s="1">
+        <v>43345.885416666664</v>
+      </c>
+      <c r="H144" s="1">
+        <v>43345.888888888891</v>
+      </c>
+      <c r="I144" s="1">
+        <v>43345.923611111109</v>
+      </c>
+      <c r="J144" s="1">
+        <v>43345.94027777778</v>
+      </c>
+      <c r="K144" t="s">
+        <v>4</v>
+      </c>
+      <c r="L144" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>4272</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
         <v>6</v>
       </c>
-      <c r="F144" t="s">
-        <v>2</v>
-      </c>
-      <c r="G144" s="1">
-        <v>43349.90625</v>
-      </c>
-      <c r="H144" s="1">
-        <v>43349.90902777778</v>
-      </c>
-      <c r="I144" s="1">
-        <v>43349.951388888891</v>
-      </c>
-      <c r="J144" s="1">
-        <v>43349.950694444444</v>
-      </c>
-      <c r="K144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>4182</v>
-      </c>
-      <c r="C145">
-        <v>3</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>2</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2</v>
-      </c>
       <c r="G145" s="1">
-        <v>43344.501388888886</v>
+        <v>43346.885416666664</v>
       </c>
       <c r="H145" s="1">
-        <v>43344.501388888886</v>
+        <v>43346.878472222219</v>
       </c>
       <c r="I145" s="1">
-        <v>43344.574999999997</v>
+        <v>43346.923611111109</v>
       </c>
       <c r="J145" s="1">
-        <v>43344.574999999997</v>
+        <v>43346.921527777777</v>
       </c>
       <c r="K145" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146">
-        <v>4219</v>
+        <v>4272</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="1">
-        <v>43348.936111111114</v>
+        <v>43347.885416666664</v>
       </c>
       <c r="H146" s="1">
-        <v>43348.936111111114</v>
+        <v>43347.885416666664</v>
       </c>
       <c r="I146" s="1">
-        <v>43348.942361111112</v>
+        <v>43347.923611111109</v>
       </c>
       <c r="J146" s="1">
-        <v>43348.942361111112</v>
+        <v>43347.923611111109</v>
       </c>
       <c r="K146" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147">
-        <v>4232</v>
+        <v>4272</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5581,33 +6035,36 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G147" s="1">
-        <v>43345.274305555555</v>
+        <v>43348.885416666664</v>
       </c>
       <c r="H147" s="1">
-        <v>43345.263888888891</v>
+        <v>43348.885416666664</v>
       </c>
       <c r="I147" s="1">
-        <v>43345.329861111109</v>
+        <v>43348.923611111109</v>
       </c>
       <c r="J147" s="1">
-        <v>43345.31527777778</v>
+        <v>43348.923611111109</v>
       </c>
       <c r="K147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148">
-        <v>4264</v>
+        <v>4272</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5622,27 +6079,30 @@
         <v>6</v>
       </c>
       <c r="G148" s="1">
-        <v>43345.451388888891</v>
+        <v>43349.885416666664</v>
       </c>
       <c r="H148" s="1">
-        <v>43345.450694444444</v>
+        <v>43349.888888888891</v>
       </c>
       <c r="I148" s="1">
-        <v>43345.5</v>
+        <v>43349.923611111109</v>
       </c>
       <c r="J148" s="1">
-        <v>43345.491666666669</v>
+        <v>43349.938888888886</v>
       </c>
       <c r="K148" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149">
-        <v>4272</v>
+        <v>4280</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -5654,275 +6114,299 @@
         <v>2</v>
       </c>
       <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="1">
+        <v>43350.795138888891</v>
+      </c>
+      <c r="H149" s="1">
+        <v>43350.794444444444</v>
+      </c>
+      <c r="I149" s="1">
+        <v>43350.850694444445</v>
+      </c>
+      <c r="J149" s="1">
+        <v>43350.84375</v>
+      </c>
+      <c r="K149" t="s">
+        <v>4</v>
+      </c>
+      <c r="L149" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>4421</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>2</v>
+      </c>
+      <c r="G150" s="1">
+        <v>43345.8125</v>
+      </c>
+      <c r="H150" s="1">
+        <v>43345.823611111111</v>
+      </c>
+      <c r="I150" s="1">
+        <v>43345.871527777781</v>
+      </c>
+      <c r="J150" s="1">
+        <v>43345.869444444441</v>
+      </c>
+      <c r="K150" t="s">
+        <v>4</v>
+      </c>
+      <c r="L150" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>4421</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>43346.8125</v>
+      </c>
+      <c r="H151" s="1">
+        <v>43346.809027777781</v>
+      </c>
+      <c r="I151" s="1">
+        <v>43346.871527777781</v>
+      </c>
+      <c r="J151" s="1">
+        <v>43346.863888888889</v>
+      </c>
+      <c r="K151" t="s">
+        <v>4</v>
+      </c>
+      <c r="L151" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>4421</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>43347.8125</v>
+      </c>
+      <c r="H152" s="1">
+        <v>43347.81527777778</v>
+      </c>
+      <c r="I152" s="1">
+        <v>43347.871527777781</v>
+      </c>
+      <c r="J152" s="1">
+        <v>43347.868055555555</v>
+      </c>
+      <c r="K152" t="s">
+        <v>4</v>
+      </c>
+      <c r="L152" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>4421</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>43348.8125</v>
+      </c>
+      <c r="H153" s="1">
+        <v>43348.816666666666</v>
+      </c>
+      <c r="I153" s="1">
+        <v>43348.871527777781</v>
+      </c>
+      <c r="J153" s="1">
+        <v>43348.867361111108</v>
+      </c>
+      <c r="K153" t="s">
+        <v>4</v>
+      </c>
+      <c r="L153" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>4421</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="1">
+        <v>43349.8125</v>
+      </c>
+      <c r="H154" s="1">
+        <v>43349.81527777778</v>
+      </c>
+      <c r="I154" s="1">
+        <v>43349.871527777781</v>
+      </c>
+      <c r="J154" s="1">
+        <v>43349.864583333336</v>
+      </c>
+      <c r="K154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L154" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>4421</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="1">
+        <v>43350.8125</v>
+      </c>
+      <c r="H155" s="1">
+        <v>43350.804166666669</v>
+      </c>
+      <c r="I155" s="1">
+        <v>43350.871527777781</v>
+      </c>
+      <c r="J155" s="1">
+        <v>43350.862500000003</v>
+      </c>
+      <c r="K155" t="s">
+        <v>4</v>
+      </c>
+      <c r="L155" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>4949</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
         <v>6</v>
       </c>
-      <c r="G149" s="1">
-        <v>43344.885416666664</v>
-      </c>
-      <c r="H149" s="1">
-        <v>43344.885416666664</v>
-      </c>
-      <c r="I149" s="1">
-        <v>43344.923611111109</v>
-      </c>
-      <c r="J149" s="1">
-        <v>43344.923611111109</v>
-      </c>
-      <c r="K149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>4272</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="1">
-        <v>43345.885416666664</v>
-      </c>
-      <c r="H150" s="1">
-        <v>43345.888888888891</v>
-      </c>
-      <c r="I150" s="1">
-        <v>43345.923611111109</v>
-      </c>
-      <c r="J150" s="1">
-        <v>43345.94027777778</v>
-      </c>
-      <c r="K150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>4272</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="1">
-        <v>43346.885416666664</v>
-      </c>
-      <c r="H151" s="1">
-        <v>43346.878472222219</v>
-      </c>
-      <c r="I151" s="1">
-        <v>43346.923611111109</v>
-      </c>
-      <c r="J151" s="1">
-        <v>43346.921527777777</v>
-      </c>
-      <c r="K151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>4272</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="1">
-        <v>43347.885416666664</v>
-      </c>
-      <c r="H152" s="1">
-        <v>43347.885416666664</v>
-      </c>
-      <c r="I152" s="1">
-        <v>43347.923611111109</v>
-      </c>
-      <c r="J152" s="1">
-        <v>43347.923611111109</v>
-      </c>
-      <c r="K152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>4272</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" t="s">
-        <v>2</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="1">
-        <v>43348.885416666664</v>
-      </c>
-      <c r="H153" s="1">
-        <v>43348.885416666664</v>
-      </c>
-      <c r="I153" s="1">
-        <v>43348.923611111109</v>
-      </c>
-      <c r="J153" s="1">
-        <v>43348.923611111109</v>
-      </c>
-      <c r="K153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>4272</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="1">
-        <v>43349.885416666664</v>
-      </c>
-      <c r="H154" s="1">
-        <v>43349.888888888891</v>
-      </c>
-      <c r="I154" s="1">
-        <v>43349.923611111109</v>
-      </c>
-      <c r="J154" s="1">
-        <v>43349.938888888886</v>
-      </c>
-      <c r="K154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155">
-        <v>4280</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>2</v>
-      </c>
-      <c r="F155" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" s="1">
-        <v>43350.795138888891</v>
-      </c>
-      <c r="H155" s="1">
-        <v>43350.794444444444</v>
-      </c>
-      <c r="I155" s="1">
-        <v>43350.850694444445</v>
-      </c>
-      <c r="J155" s="1">
-        <v>43350.84375</v>
-      </c>
-      <c r="K155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>4421</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" t="s">
-        <v>3</v>
-      </c>
       <c r="F156" t="s">
         <v>2</v>
       </c>
       <c r="G156" s="1">
-        <v>43345.8125</v>
+        <v>43344.805555555555</v>
       </c>
       <c r="H156" s="1">
-        <v>43345.823611111111</v>
+        <v>43344.804861111108</v>
       </c>
       <c r="I156" s="1">
-        <v>43345.871527777781</v>
+        <v>43344.850694444445</v>
       </c>
       <c r="J156" s="1">
-        <v>43345.869444444441</v>
+        <v>43344.85</v>
       </c>
       <c r="K156" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5937,27 +6421,30 @@
         <v>2</v>
       </c>
       <c r="G157" s="1">
-        <v>43346.8125</v>
+        <v>43345.645833333336</v>
       </c>
       <c r="H157" s="1">
-        <v>43346.809027777781</v>
+        <v>43345.645833333336</v>
       </c>
       <c r="I157" s="1">
-        <v>43346.871527777781</v>
+        <v>43345.701388888891</v>
       </c>
       <c r="J157" s="1">
-        <v>43346.863888888889</v>
+        <v>43345.701388888891</v>
       </c>
       <c r="K157" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5972,27 +6459,30 @@
         <v>2</v>
       </c>
       <c r="G158" s="1">
-        <v>43347.8125</v>
+        <v>43346.645833333336</v>
       </c>
       <c r="H158" s="1">
-        <v>43347.81527777778</v>
+        <v>43346.645833333336</v>
       </c>
       <c r="I158" s="1">
-        <v>43347.871527777781</v>
+        <v>43346.701388888891</v>
       </c>
       <c r="J158" s="1">
-        <v>43347.868055555555</v>
+        <v>43346.701388888891</v>
       </c>
       <c r="K158" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6007,27 +6497,30 @@
         <v>2</v>
       </c>
       <c r="G159" s="1">
-        <v>43348.8125</v>
+        <v>43347.645833333336</v>
       </c>
       <c r="H159" s="1">
-        <v>43348.816666666666</v>
+        <v>43347.645833333336</v>
       </c>
       <c r="I159" s="1">
-        <v>43348.871527777781</v>
+        <v>43347.701388888891</v>
       </c>
       <c r="J159" s="1">
-        <v>43348.867361111108</v>
+        <v>43347.701388888891</v>
       </c>
       <c r="K159" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6042,27 +6535,30 @@
         <v>2</v>
       </c>
       <c r="G160" s="1">
-        <v>43349.8125</v>
+        <v>43348.645833333336</v>
       </c>
       <c r="H160" s="1">
-        <v>43349.81527777778</v>
+        <v>43348.644444444442</v>
       </c>
       <c r="I160" s="1">
-        <v>43349.871527777781</v>
+        <v>43348.701388888891</v>
       </c>
       <c r="J160" s="1">
-        <v>43349.864583333336</v>
+        <v>43348.694444444445</v>
       </c>
       <c r="K160" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
       <c r="B161">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6077,30 +6573,33 @@
         <v>2</v>
       </c>
       <c r="G161" s="1">
-        <v>43350.8125</v>
+        <v>43349.645833333336</v>
       </c>
       <c r="H161" s="1">
-        <v>43350.804166666669</v>
+        <v>43349.640972222223</v>
       </c>
       <c r="I161" s="1">
-        <v>43350.871527777781</v>
+        <v>43349.701388888891</v>
       </c>
       <c r="J161" s="1">
-        <v>43350.862500000003</v>
+        <v>43349.69027777778</v>
       </c>
       <c r="K161" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
       <c r="B162">
-        <v>4492</v>
+        <v>5071</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -6109,30 +6608,33 @@
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G162" s="1">
-        <v>43345.486111111109</v>
+        <v>43344.475694444445</v>
       </c>
       <c r="H162" s="1">
-        <v>43345.486111111109</v>
+        <v>43344.475694444445</v>
       </c>
       <c r="I162" s="1">
-        <v>43345.496527777781</v>
+        <v>43344.520833333336</v>
       </c>
       <c r="J162" s="1">
-        <v>43345.496527777781</v>
+        <v>43344.520833333336</v>
       </c>
       <c r="K162" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
       <c r="B163">
-        <v>4949</v>
+        <v>5071</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -6141,33 +6643,36 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
         <v>6</v>
       </c>
-      <c r="F163" t="s">
-        <v>2</v>
-      </c>
       <c r="G163" s="1">
-        <v>43344.805555555555</v>
+        <v>43346.482638888891</v>
       </c>
       <c r="H163" s="1">
-        <v>43344.804861111108</v>
+        <v>43346.475694444445</v>
       </c>
       <c r="I163" s="1">
-        <v>43344.850694444445</v>
+        <v>43346.527777777781</v>
       </c>
       <c r="J163" s="1">
-        <v>43344.85</v>
+        <v>43346.515972222223</v>
       </c>
       <c r="K163" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
       <c r="B164">
-        <v>4951</v>
+        <v>5071</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6176,33 +6681,36 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G164" s="1">
-        <v>43345.645833333336</v>
+        <v>43347.482638888891</v>
       </c>
       <c r="H164" s="1">
-        <v>43345.645833333336</v>
+        <v>43347.475694444445</v>
       </c>
       <c r="I164" s="1">
-        <v>43345.701388888891</v>
+        <v>43347.527777777781</v>
       </c>
       <c r="J164" s="1">
-        <v>43345.701388888891</v>
+        <v>43347.518750000003</v>
       </c>
       <c r="K164" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
       <c r="B165">
-        <v>4951</v>
+        <v>5071</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -6211,33 +6719,36 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G165" s="1">
-        <v>43346.645833333336</v>
+        <v>43348.482638888891</v>
       </c>
       <c r="H165" s="1">
-        <v>43346.645833333336</v>
+        <v>43348.474999999999</v>
       </c>
       <c r="I165" s="1">
-        <v>43346.701388888891</v>
+        <v>43348.527777777781</v>
       </c>
       <c r="J165" s="1">
-        <v>43346.701388888891</v>
+        <v>43348.515972222223</v>
       </c>
       <c r="K165" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
       <c r="B166">
-        <v>4951</v>
+        <v>5071</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6246,33 +6757,36 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G166" s="1">
-        <v>43347.645833333336</v>
+        <v>43349.482638888891</v>
       </c>
       <c r="H166" s="1">
-        <v>43347.645833333336</v>
+        <v>43349.482638888891</v>
       </c>
       <c r="I166" s="1">
-        <v>43347.701388888891</v>
+        <v>43349.527777777781</v>
       </c>
       <c r="J166" s="1">
-        <v>43347.701388888891</v>
+        <v>43349.527777777781</v>
       </c>
       <c r="K166" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
       <c r="B167">
-        <v>4951</v>
+        <v>5160</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6281,33 +6795,36 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F167" t="s">
         <v>2</v>
       </c>
       <c r="G167" s="1">
-        <v>43348.645833333336</v>
+        <v>43344.354166666664</v>
       </c>
       <c r="H167" s="1">
-        <v>43348.644444444442</v>
+        <v>43344.354166666664</v>
       </c>
       <c r="I167" s="1">
-        <v>43348.701388888891</v>
+        <v>43344.40625</v>
       </c>
       <c r="J167" s="1">
-        <v>43348.694444444445</v>
+        <v>43344.40625</v>
       </c>
       <c r="K167" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
       <c r="B168">
-        <v>4951</v>
+        <v>5162</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -6322,27 +6839,30 @@
         <v>2</v>
       </c>
       <c r="G168" s="1">
-        <v>43349.645833333336</v>
+        <v>43346.402777777781</v>
       </c>
       <c r="H168" s="1">
-        <v>43349.640972222223</v>
+        <v>43346.402777777781</v>
       </c>
       <c r="I168" s="1">
-        <v>43349.701388888891</v>
+        <v>43346.458333333336</v>
       </c>
       <c r="J168" s="1">
-        <v>43349.69027777778</v>
+        <v>43346.458333333336</v>
       </c>
       <c r="K168" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
       <c r="B169">
-        <v>5071</v>
+        <v>5162</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6351,33 +6871,36 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G169" s="1">
-        <v>43344.475694444445</v>
+        <v>43347.402777777781</v>
       </c>
       <c r="H169" s="1">
-        <v>43344.475694444445</v>
+        <v>43347.402777777781</v>
       </c>
       <c r="I169" s="1">
-        <v>43344.520833333336</v>
+        <v>43347.458333333336</v>
       </c>
       <c r="J169" s="1">
-        <v>43344.520833333336</v>
+        <v>43347.458333333336</v>
       </c>
       <c r="K169" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
       <c r="B170">
-        <v>5071</v>
+        <v>5162</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6386,68 +6909,74 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F170" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G170" s="1">
-        <v>43346.482638888891</v>
+        <v>43348.402777777781</v>
       </c>
       <c r="H170" s="1">
-        <v>43346.475694444445</v>
+        <v>43348.414583333331</v>
       </c>
       <c r="I170" s="1">
-        <v>43346.527777777781</v>
+        <v>43348.458333333336</v>
       </c>
       <c r="J170" s="1">
-        <v>43346.515972222223</v>
+        <v>43348.461805555555</v>
       </c>
       <c r="K170" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
       <c r="B171">
-        <v>5071</v>
-      </c>
-      <c r="C171">
+        <v>5162</v>
+      </c>
+      <c r="C171" s="3">
         <v>0</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G171" s="1">
-        <v>43347.482638888891</v>
+        <v>43349.402777777781</v>
       </c>
       <c r="H171" s="1">
-        <v>43347.475694444445</v>
+        <v>43349.455555555556</v>
       </c>
       <c r="I171" s="1">
-        <v>43347.527777777781</v>
+        <v>43349.458333333336</v>
       </c>
       <c r="J171" s="1">
-        <v>43347.518750000003</v>
+        <v>43349.510416666664</v>
       </c>
       <c r="K171" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
       <c r="B172">
-        <v>5071</v>
+        <v>5166</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6462,27 +6991,30 @@
         <v>6</v>
       </c>
       <c r="G172" s="1">
-        <v>43348.482638888891</v>
+        <v>43346.34375</v>
       </c>
       <c r="H172" s="1">
-        <v>43348.474999999999</v>
+        <v>43346.340277777781</v>
       </c>
       <c r="I172" s="1">
-        <v>43348.527777777781</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="J172" s="1">
-        <v>43348.515972222223</v>
+        <v>43346.388888888891</v>
       </c>
       <c r="K172" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
       <c r="B173">
-        <v>5071</v>
+        <v>5166</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6497,27 +7029,30 @@
         <v>6</v>
       </c>
       <c r="G173" s="1">
-        <v>43349.482638888891</v>
+        <v>43347.34375</v>
       </c>
       <c r="H173" s="1">
-        <v>43349.482638888891</v>
+        <v>43347.339583333334</v>
       </c>
       <c r="I173" s="1">
-        <v>43349.527777777781</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="J173" s="1">
-        <v>43349.527777777781</v>
+        <v>43347.379861111112</v>
       </c>
       <c r="K173" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
       <c r="B174">
-        <v>5160</v>
+        <v>5166</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6526,138 +7061,150 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="1">
+        <v>43348.34375</v>
+      </c>
+      <c r="H174" s="1">
+        <v>43348.34375</v>
+      </c>
+      <c r="I174" s="1">
+        <v>43348.392361111109</v>
+      </c>
+      <c r="J174" s="1">
+        <v>43348.392361111109</v>
+      </c>
+      <c r="K174" t="s">
+        <v>4</v>
+      </c>
+      <c r="L174" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>5166</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="1">
+        <v>43350.34375</v>
+      </c>
+      <c r="H175" s="1">
+        <v>43350.336805555555</v>
+      </c>
+      <c r="I175" s="1">
+        <v>43350.392361111109</v>
+      </c>
+      <c r="J175" s="1">
+        <v>43350.390277777777</v>
+      </c>
+      <c r="K175" t="s">
+        <v>4</v>
+      </c>
+      <c r="L175" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>6991</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>43350.552083333336</v>
+      </c>
+      <c r="H176" s="1">
+        <v>43350.548611111109</v>
+      </c>
+      <c r="I176" s="1">
+        <v>43350.600694444445</v>
+      </c>
+      <c r="J176" s="1">
+        <v>43350.588888888888</v>
+      </c>
+      <c r="K176" t="s">
+        <v>4</v>
+      </c>
+      <c r="L176" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>6996</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
         <v>5</v>
       </c>
-      <c r="F174" t="s">
-        <v>2</v>
-      </c>
-      <c r="G174" s="1">
-        <v>43344.354166666664</v>
-      </c>
-      <c r="H174" s="1">
-        <v>43344.354166666664</v>
-      </c>
-      <c r="I174" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="J174" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="K174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175">
-        <v>5162</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1</v>
-      </c>
-      <c r="E175" t="s">
-        <v>3</v>
-      </c>
-      <c r="F175" t="s">
-        <v>2</v>
-      </c>
-      <c r="G175" s="1">
-        <v>43346.402777777781</v>
-      </c>
-      <c r="H175" s="1">
-        <v>43346.402777777781</v>
-      </c>
-      <c r="I175" s="1">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="J175" s="1">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="K175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176">
-        <v>5162</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1</v>
-      </c>
-      <c r="E176" t="s">
-        <v>3</v>
-      </c>
-      <c r="F176" t="s">
-        <v>2</v>
-      </c>
-      <c r="G176" s="1">
-        <v>43347.402777777781</v>
-      </c>
-      <c r="H176" s="1">
-        <v>43347.402777777781</v>
-      </c>
-      <c r="I176" s="1">
-        <v>43347.458333333336</v>
-      </c>
-      <c r="J176" s="1">
-        <v>43347.458333333336</v>
-      </c>
-      <c r="K176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177">
-        <v>5162</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" t="s">
-        <v>3</v>
-      </c>
-      <c r="F177" t="s">
-        <v>2</v>
-      </c>
       <c r="G177" s="1">
-        <v>43348.402777777781</v>
+        <v>43344.336805555555</v>
       </c>
       <c r="H177" s="1">
-        <v>43348.414583333331</v>
+        <v>43344.332638888889</v>
       </c>
       <c r="I177" s="1">
-        <v>43348.458333333336</v>
+        <v>43344.392361111109</v>
       </c>
       <c r="J177" s="1">
-        <v>43348.461805555555</v>
+        <v>43344.390972222223</v>
       </c>
       <c r="K177" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
       <c r="B178">
-        <v>5162</v>
+        <v>6999</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6666,33 +7213,36 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F178" t="s">
         <v>2</v>
       </c>
       <c r="G178" s="1">
-        <v>43349.402777777781</v>
+        <v>43344.260416666664</v>
       </c>
       <c r="H178" s="1">
-        <v>43349.455555555556</v>
+        <v>43344.261111111111</v>
       </c>
       <c r="I178" s="1">
-        <v>43349.458333333336</v>
+        <v>43344.309027777781</v>
       </c>
       <c r="J178" s="1">
-        <v>43349.510416666664</v>
+        <v>43344.308333333334</v>
       </c>
       <c r="K178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
       <c r="B179">
-        <v>5166</v>
+        <v>6999</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -6701,138 +7251,150 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F179" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>43346.263888888891</v>
+      </c>
+      <c r="H179" s="1">
+        <v>43346.256249999999</v>
+      </c>
+      <c r="I179" s="1">
+        <v>43346.3125</v>
+      </c>
+      <c r="J179" s="1">
+        <v>43346.30972222222</v>
+      </c>
+      <c r="K179" t="s">
+        <v>4</v>
+      </c>
+      <c r="L179" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>6999</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="1">
-        <v>43346.34375</v>
-      </c>
-      <c r="H179" s="1">
-        <v>43346.340277777781</v>
-      </c>
-      <c r="I179" s="1">
-        <v>43346.392361111109</v>
-      </c>
-      <c r="J179" s="1">
-        <v>43346.388888888891</v>
-      </c>
-      <c r="K179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180">
-        <v>5166</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>2</v>
-      </c>
       <c r="F180" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>43347.263888888891</v>
+      </c>
+      <c r="H180" s="1">
+        <v>43347.256944444445</v>
+      </c>
+      <c r="I180" s="1">
+        <v>43347.3125</v>
+      </c>
+      <c r="J180" s="1">
+        <v>43347.311805555553</v>
+      </c>
+      <c r="K180" t="s">
+        <v>4</v>
+      </c>
+      <c r="L180" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>6999</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="1">
-        <v>43347.34375</v>
-      </c>
-      <c r="H180" s="1">
-        <v>43347.339583333334</v>
-      </c>
-      <c r="I180" s="1">
-        <v>43347.392361111109</v>
-      </c>
-      <c r="J180" s="1">
-        <v>43347.379861111112</v>
-      </c>
-      <c r="K180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181">
-        <v>5166</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>2</v>
-      </c>
       <c r="F181" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>43348.263888888891</v>
+      </c>
+      <c r="H181" s="1">
+        <v>43348.259027777778</v>
+      </c>
+      <c r="I181" s="1">
+        <v>43348.3125</v>
+      </c>
+      <c r="J181" s="1">
+        <v>43348.303472222222</v>
+      </c>
+      <c r="K181" t="s">
+        <v>4</v>
+      </c>
+      <c r="L181" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>6999</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
         <v>6</v>
       </c>
-      <c r="G181" s="1">
-        <v>43348.34375</v>
-      </c>
-      <c r="H181" s="1">
-        <v>43348.34375</v>
-      </c>
-      <c r="I181" s="1">
-        <v>43348.392361111109</v>
-      </c>
-      <c r="J181" s="1">
-        <v>43348.392361111109</v>
-      </c>
-      <c r="K181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182">
-        <v>5166</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1</v>
-      </c>
-      <c r="E182" t="s">
-        <v>2</v>
-      </c>
       <c r="F182" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G182" s="1">
-        <v>43350.34375</v>
+        <v>43349.263888888891</v>
       </c>
       <c r="H182" s="1">
-        <v>43350.336805555555</v>
+        <v>43349.256249999999</v>
       </c>
       <c r="I182" s="1">
-        <v>43350.392361111109</v>
+        <v>43349.3125</v>
       </c>
       <c r="J182" s="1">
-        <v>43350.390277777777</v>
+        <v>43349.299305555556</v>
       </c>
       <c r="K182" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
       <c r="B183">
-        <v>6991</v>
+        <v>6999</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -6847,27 +7409,30 @@
         <v>2</v>
       </c>
       <c r="G183" s="1">
-        <v>43350.552083333336</v>
+        <v>43350.263888888891</v>
       </c>
       <c r="H183" s="1">
-        <v>43350.548611111109</v>
+        <v>43350.259027777778</v>
       </c>
       <c r="I183" s="1">
-        <v>43350.600694444445</v>
+        <v>43350.3125</v>
       </c>
       <c r="J183" s="1">
-        <v>43350.588888888888</v>
+        <v>43350.306250000001</v>
       </c>
       <c r="K183" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
       <c r="B184">
-        <v>6996</v>
+        <v>9290</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -6879,270 +7444,30 @@
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G184" s="1">
-        <v>43344.336805555555</v>
+        <v>43345.777777777781</v>
       </c>
       <c r="H184" s="1">
-        <v>43344.332638888889</v>
+        <v>43345.775000000001</v>
       </c>
       <c r="I184" s="1">
-        <v>43344.392361111109</v>
+        <v>43345.836805555555</v>
       </c>
       <c r="J184" s="1">
-        <v>43344.390972222223</v>
+        <v>43345.828472222223</v>
       </c>
       <c r="K184" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185">
-        <v>6999</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>2</v>
-      </c>
-      <c r="G185" s="1">
-        <v>43344.260416666664</v>
-      </c>
-      <c r="H185" s="1">
-        <v>43344.261111111111</v>
-      </c>
-      <c r="I185" s="1">
-        <v>43344.309027777781</v>
-      </c>
-      <c r="J185" s="1">
-        <v>43344.308333333334</v>
-      </c>
-      <c r="K185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186">
-        <v>6999</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>2</v>
-      </c>
-      <c r="G186" s="1">
-        <v>43346.263888888891</v>
-      </c>
-      <c r="H186" s="1">
-        <v>43346.256249999999</v>
-      </c>
-      <c r="I186" s="1">
-        <v>43346.3125</v>
-      </c>
-      <c r="J186" s="1">
-        <v>43346.30972222222</v>
-      </c>
-      <c r="K186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>6999</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1</v>
-      </c>
-      <c r="E187" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" t="s">
-        <v>2</v>
-      </c>
-      <c r="G187" s="1">
-        <v>43347.263888888891</v>
-      </c>
-      <c r="H187" s="1">
-        <v>43347.256944444445</v>
-      </c>
-      <c r="I187" s="1">
-        <v>43347.3125</v>
-      </c>
-      <c r="J187" s="1">
-        <v>43347.311805555553</v>
-      </c>
-      <c r="K187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188">
-        <v>6999</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1</v>
-      </c>
-      <c r="E188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>2</v>
-      </c>
-      <c r="G188" s="1">
-        <v>43348.263888888891</v>
-      </c>
-      <c r="H188" s="1">
-        <v>43348.259027777778</v>
-      </c>
-      <c r="I188" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="J188" s="1">
-        <v>43348.303472222222</v>
-      </c>
-      <c r="K188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>6999</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" t="s">
-        <v>2</v>
-      </c>
-      <c r="G189" s="1">
-        <v>43349.263888888891</v>
-      </c>
-      <c r="H189" s="1">
-        <v>43349.256249999999</v>
-      </c>
-      <c r="I189" s="1">
-        <v>43349.3125</v>
-      </c>
-      <c r="J189" s="1">
-        <v>43349.299305555556</v>
-      </c>
-      <c r="K189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>6999</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>6</v>
-      </c>
-      <c r="F190" t="s">
-        <v>2</v>
-      </c>
-      <c r="G190" s="1">
-        <v>43350.263888888891</v>
-      </c>
-      <c r="H190" s="1">
-        <v>43350.259027777778</v>
-      </c>
-      <c r="I190" s="1">
-        <v>43350.3125</v>
-      </c>
-      <c r="J190" s="1">
-        <v>43350.306250000001</v>
-      </c>
-      <c r="K190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191">
-        <v>9290</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>2</v>
-      </c>
-      <c r="F191" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191" s="1">
-        <v>43345.777777777781</v>
-      </c>
-      <c r="H191" s="1">
-        <v>43345.775000000001</v>
-      </c>
-      <c r="I191" s="1">
-        <v>43345.836805555555</v>
-      </c>
-      <c r="J191" s="1">
-        <v>43345.828472222223</v>
-      </c>
-      <c r="K191" t="s">
-        <v>4</v>
+      <c r="L184" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:K184" xr:uid="{22EE9823-BD9C-41CA-BB7F-14D74BCEB489}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>